--- a/Output Data/EMG Data/Lower Leg/2021-11-10/Analysis/RF/MapedData_RF.xlsx
+++ b/Output Data/EMG Data/Lower Leg/2021-11-10/Analysis/RF/MapedData_RF.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Signal Data and Labels" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Signal Data and Labels1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6175,4 +6176,5763 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D409"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="22" customWidth="1" min="1" max="1"/>
+    <col width="22" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="3" max="3"/>
+    <col width="23" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dimension 1</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Dimension 2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Signal Labels True</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Signal Labels Predicted</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0.7387284460426364</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>0.0715276705621823</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>0.7023189406842092</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>-0.03431926010513795</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>0.722268671322611</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>0.1678501137906761</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>0.7638615348910848</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>-0.06441050679757378</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>0.7460587250691529</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>-0.1145166968327621</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>1.001355832027211</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>-0.1277156187373097</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>1.174266757222266</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>0.08378104341323826</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>0.7792748792665899</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>-0.1091524958328566</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>0.9639756059093491</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>0.4519198114330587</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>0.8702640808824027</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>0.04379007559752828</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>1.058949736339651</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>-0.1176403922320457</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>1.580487794475813</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>0.3615442646787549</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>1.178624984260649</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>-0.1889772108284446</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>1.206391241951063</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>-0.1361685160058591</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>0.8969005838702893</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>0.1438639356339306</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>1.041385415541911</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>-0.1546820735434744</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>1.095535167423213</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>-0.281767961336931</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>0.8618251263085107</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>-0.1825026567675926</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>0.6473875844127274</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>0.06538352050211566</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>0.7022265842376482</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>-0.1032413781011114</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>1.104082815373707</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>-0.1268896191868972</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>1.276339072628862</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>-0.3230045381611061</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>0.6004405586096367</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>0.05562957861109009</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>0.6970256416346127</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>-0.06725795478988721</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>0.5660898826125483</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>-0.005155056551225006</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>1.180944208336715</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>-0.04828316344556079</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>1.443100804375882</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>-0.4559665838301668</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>0.9473962676827125</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>0.07855049890270051</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>0.8991785821847924</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>-0.1033324704191046</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>-0.9185370416163777</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>-0.01122020893459222</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>0.9590961318510393</v>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>0.1691130769063549</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>0.934246389024318</v>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>-0.08845601584486347</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>0.8119389352485741</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>0.2639171536608342</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>0.6988698752439783</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>0.09800868275172896</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>0.8637773988083796</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>0.02455655576392062</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>1.194263251560679</v>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>-0.5206393216644948</v>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>-1.942846401543243</v>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>-0.4667172522902888</v>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>-1.60539625982314</v>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>-0.3390434886979398</v>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>-0.6977254648704728</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>-0.7152022012819996</v>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>-1.296193511835104</v>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>-1.281787868181566</v>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>-2.41285382251187</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>-0.2107041363347536</v>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>-1.948389153638794</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>-0.8552717711152531</v>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>-1.739125702875673</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>-0.8890308414618426</v>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>-1.691050412335027</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>-1.010117594140954</v>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>-0.4573584868153895</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>-0.7456290276101362</v>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>-0.6758696454401589</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>-0.5325816507013063</v>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>-0.4999744880656757</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>-1.119744061437004</v>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>-1.029253072065083</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>-0.4680684069816982</v>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>-0.2146622249359583</v>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>-0.4656929991884559</v>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>-0.4809234627075457</v>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>-0.4672971761051223</v>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>-0.3656559538624172</v>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>-0.870061925120882</v>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>-0.615067675576249</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>-0.8333454250595688</v>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>-1.110480597899779</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>-0.5562664896551671</v>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>-0.7861319812598386</v>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>-0.5693904965410501</v>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>-0.8521975150751849</v>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>-0.7465442854976558</v>
+      </c>
+      <c r="C56" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>-1.454027967644842</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>-0.9974930520618251</v>
+      </c>
+      <c r="C57" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>-0.9744334802347293</v>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>-0.7927853210283048</v>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>-1.843109763944505</v>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>-0.7423574211574724</v>
+      </c>
+      <c r="C59" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>-0.8795051836733022</v>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>-0.3189623571694752</v>
+      </c>
+      <c r="C60" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>-1.290793994350718</v>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>-0.2409908442294749</v>
+      </c>
+      <c r="C61" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>-0.4090784589920647</v>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>-0.1374495407012168</v>
+      </c>
+      <c r="C62" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>-0.858885213593782</v>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>-0.6931262909306605</v>
+      </c>
+      <c r="C63" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>-1.222599129624978</v>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>-0.394462616714835</v>
+      </c>
+      <c r="C64" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>0.09967006467172861</v>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>0.6253605505578366</v>
+      </c>
+      <c r="C65" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>0.2021021020386214</v>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>0.5707266297009537</v>
+      </c>
+      <c r="C66" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>0.06127141929606081</v>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>0.6071820662391139</v>
+      </c>
+      <c r="C67" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>0.1703577828544001</v>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>0.5823992034202577</v>
+      </c>
+      <c r="C68" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>0.1058222021008137</v>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>0.6517485774091503</v>
+      </c>
+      <c r="C69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>0.2507983918182155</v>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>0.6038225676531793</v>
+      </c>
+      <c r="C70" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>0.1986586241694178</v>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>0.5854961733146024</v>
+      </c>
+      <c r="C71" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D71" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>0.1902076329588845</v>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>0.6203775630625418</v>
+      </c>
+      <c r="C72" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D72" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>0.1324935285514437</v>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>0.674644192560638</v>
+      </c>
+      <c r="C73" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D73" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>0.2569504635330225</v>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>0.5411803309387824</v>
+      </c>
+      <c r="C74" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>0.2929778366866765</v>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>0.6309762374370622</v>
+      </c>
+      <c r="C75" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D75" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>0.2160455625944961</v>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>0.6203437050281324</v>
+      </c>
+      <c r="C76" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>0.2336193919278055</v>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>0.6045853958682841</v>
+      </c>
+      <c r="C77" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>0.08130403756171094</v>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>0.5966944875284227</v>
+      </c>
+      <c r="C78" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>0.199442502755587</v>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>0.5078973398856224</v>
+      </c>
+      <c r="C79" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>0.3394393972253518</v>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>0.6839670773289803</v>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>0.2129475339400078</v>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>0.6650758420913377</v>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>0.2539009809047827</v>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>0.6210564897616423</v>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>0.09783875796681316</v>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>0.6082614125063568</v>
+      </c>
+      <c r="C83" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>0.1696459426498976</v>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>0.6110512167233869</v>
+      </c>
+      <c r="C84" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>0.1818677552776897</v>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>0.5550533554843252</v>
+      </c>
+      <c r="C85" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>0.1325119640357566</v>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>0.5578717106710759</v>
+      </c>
+      <c r="C86" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>0.1648670770497523</v>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>0.5187620095374057</v>
+      </c>
+      <c r="C87" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>0.171177058169794</v>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>0.6451155097868616</v>
+      </c>
+      <c r="C88" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>0.09312868030534946</v>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>0.6142157873117821</v>
+      </c>
+      <c r="C89" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>0.1361626721225348</v>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>0.5271789633879164</v>
+      </c>
+      <c r="C90" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>0.1632081376111321</v>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>0.6073281643339942</v>
+      </c>
+      <c r="C91" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D91" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>0.1322221778117</v>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>0.5761961981354274</v>
+      </c>
+      <c r="C92" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>0.1884627610933061</v>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>0.6609633642328173</v>
+      </c>
+      <c r="C93" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>0.2413463693780606</v>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>0.8806367081782775</v>
+      </c>
+      <c r="C94" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>-0.06602622190105532</v>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>-1.335161850303949</v>
+      </c>
+      <c r="C95" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D95" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>-0.0188125971708324</v>
+      </c>
+      <c r="B96" s="2" t="n">
+        <v>-1.129615007616518</v>
+      </c>
+      <c r="C96" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D96" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>-0.1284620397779858</v>
+      </c>
+      <c r="B97" s="2" t="n">
+        <v>-1.139119694297792</v>
+      </c>
+      <c r="C97" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D97" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>0.06341040303739998</v>
+      </c>
+      <c r="B98" s="2" t="n">
+        <v>-1.323715699308676</v>
+      </c>
+      <c r="C98" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D98" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>-0.00303946637926709</v>
+      </c>
+      <c r="B99" s="2" t="n">
+        <v>-1.13068185543778</v>
+      </c>
+      <c r="C99" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D99" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>-0.06297029024794822</v>
+      </c>
+      <c r="B100" s="2" t="n">
+        <v>-0.9389865674929665</v>
+      </c>
+      <c r="C100" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D100" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>0.221968453650258</v>
+      </c>
+      <c r="B101" s="2" t="n">
+        <v>-1.225205970032115</v>
+      </c>
+      <c r="C101" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D101" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>0.2200297003462617</v>
+      </c>
+      <c r="B102" s="2" t="n">
+        <v>-0.8954697163384274</v>
+      </c>
+      <c r="C102" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D102" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>0.05551654195179694</v>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>-0.885983707347374</v>
+      </c>
+      <c r="C103" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D103" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>0.2404211190495716</v>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>-0.9617259908099975</v>
+      </c>
+      <c r="C104" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D104" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>0.207717663064946</v>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>-0.8471145553737673</v>
+      </c>
+      <c r="C105" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D105" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>0.3433150628060755</v>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>-0.8743141442947181</v>
+      </c>
+      <c r="C106" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>0.01912699003070732</v>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>-0.7801794812823226</v>
+      </c>
+      <c r="C107" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D107" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>0.08985898300795246</v>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>-0.8548734365796913</v>
+      </c>
+      <c r="C108" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>-0.004319053055043829</v>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>-1.18391265339583</v>
+      </c>
+      <c r="C109" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D109" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>-0.1048487332608252</v>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>-1.111687199463848</v>
+      </c>
+      <c r="C110" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D110" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>0.364772278178309</v>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>-0.8065218703633547</v>
+      </c>
+      <c r="C111" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D111" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>-0.1460130878379802</v>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>-1.118491687372235</v>
+      </c>
+      <c r="C112" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>-0.005195554138734837</v>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>-0.7598918616291109</v>
+      </c>
+      <c r="C113" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D113" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>0.3110590721681979</v>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>-0.6333733881164796</v>
+      </c>
+      <c r="C114" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>0.2061128961462559</v>
+      </c>
+      <c r="B115" s="2" t="n">
+        <v>-0.8266134349386192</v>
+      </c>
+      <c r="C115" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D115" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>0.2947803499087515</v>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>-0.6566545039958569</v>
+      </c>
+      <c r="C116" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D116" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>0.2486393457290642</v>
+      </c>
+      <c r="B117" s="2" t="n">
+        <v>-0.5074145821080503</v>
+      </c>
+      <c r="C117" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D117" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>0.005406818612349887</v>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>-0.6315509357090102</v>
+      </c>
+      <c r="C118" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>0.2839907209620926</v>
+      </c>
+      <c r="B119" s="2" t="n">
+        <v>-0.4809164253957983</v>
+      </c>
+      <c r="C119" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D119" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>-0.02602772090096911</v>
+      </c>
+      <c r="B120" s="2" t="n">
+        <v>-0.8182989071980676</v>
+      </c>
+      <c r="C120" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D120" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>0.123945304283196</v>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>-1.113341384203198</v>
+      </c>
+      <c r="C121" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D121" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>-0.09552565908739662</v>
+      </c>
+      <c r="B122" s="2" t="n">
+        <v>-0.9915947828442161</v>
+      </c>
+      <c r="C122" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>-0.06779027400408179</v>
+      </c>
+      <c r="B123" s="2" t="n">
+        <v>-0.8966891027730231</v>
+      </c>
+      <c r="C123" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D123" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>0.1212560446693153</v>
+      </c>
+      <c r="B124" s="2" t="n">
+        <v>-1.121152673460516</v>
+      </c>
+      <c r="C124" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>-0.1543612876871758</v>
+      </c>
+      <c r="B125" s="2" t="n">
+        <v>-1.133183122974179</v>
+      </c>
+      <c r="C125" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D125" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>0.2772632440925643</v>
+      </c>
+      <c r="B126" s="2" t="n">
+        <v>-0.8152094998627571</v>
+      </c>
+      <c r="C126" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>0.02415848836376692</v>
+      </c>
+      <c r="B127" s="2" t="n">
+        <v>-0.9783153266183782</v>
+      </c>
+      <c r="C127" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D127" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>0.1139012107339845</v>
+      </c>
+      <c r="B128" s="2" t="n">
+        <v>-0.5910471407223217</v>
+      </c>
+      <c r="C128" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D128" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>1.009319371168385</v>
+      </c>
+      <c r="B129" s="2" t="n">
+        <v>0.2982721203435472</v>
+      </c>
+      <c r="C129" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D129" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>-0.493279316531723</v>
+      </c>
+      <c r="B130" s="2" t="n">
+        <v>0.6684533966925142</v>
+      </c>
+      <c r="C130" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D130" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>-1.096245602807108</v>
+      </c>
+      <c r="B131" s="2" t="n">
+        <v>0.9569846895635999</v>
+      </c>
+      <c r="C131" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D131" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>-0.9095716525672367</v>
+      </c>
+      <c r="B132" s="2" t="n">
+        <v>0.8618753491422041</v>
+      </c>
+      <c r="C132" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D132" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>-0.7088472151186102</v>
+      </c>
+      <c r="B133" s="2" t="n">
+        <v>0.6939723683672363</v>
+      </c>
+      <c r="C133" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D133" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>-0.8953589122087313</v>
+      </c>
+      <c r="B134" s="2" t="n">
+        <v>0.9114743890930511</v>
+      </c>
+      <c r="C134" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D134" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>-0.949809815648387</v>
+      </c>
+      <c r="B135" s="2" t="n">
+        <v>1.0021172413456</v>
+      </c>
+      <c r="C135" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D135" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>-0.6824778845256068</v>
+      </c>
+      <c r="B136" s="2" t="n">
+        <v>0.736533142849354</v>
+      </c>
+      <c r="C136" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D136" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>-0.754344782819935</v>
+      </c>
+      <c r="B137" s="2" t="n">
+        <v>0.7411964982138932</v>
+      </c>
+      <c r="C137" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D137" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>-0.9643457803677364</v>
+      </c>
+      <c r="B138" s="2" t="n">
+        <v>0.9233615091865816</v>
+      </c>
+      <c r="C138" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D138" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>-0.8971310015700794</v>
+      </c>
+      <c r="B139" s="2" t="n">
+        <v>0.8737463965593233</v>
+      </c>
+      <c r="C139" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D139" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>-0.6854600882569636</v>
+      </c>
+      <c r="B140" s="2" t="n">
+        <v>0.791681022795293</v>
+      </c>
+      <c r="C140" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D140" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>-0.5824620947444817</v>
+      </c>
+      <c r="B141" s="2" t="n">
+        <v>0.8115327730516313</v>
+      </c>
+      <c r="C141" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D141" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>-0.6188014681554797</v>
+      </c>
+      <c r="B142" s="2" t="n">
+        <v>0.7983961272809221</v>
+      </c>
+      <c r="C142" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D142" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>-0.5385033274645675</v>
+      </c>
+      <c r="B143" s="2" t="n">
+        <v>0.6715800833314272</v>
+      </c>
+      <c r="C143" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D143" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>-0.1540112522039214</v>
+      </c>
+      <c r="B144" s="2" t="n">
+        <v>0.5368147237980484</v>
+      </c>
+      <c r="C144" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D144" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>-0.3848228083922325</v>
+      </c>
+      <c r="B145" s="2" t="n">
+        <v>0.7288884163756453</v>
+      </c>
+      <c r="C145" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D145" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>-0.2959058056403387</v>
+      </c>
+      <c r="B146" s="2" t="n">
+        <v>0.6821479161350128</v>
+      </c>
+      <c r="C146" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D146" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>-0.05082825380104791</v>
+      </c>
+      <c r="B147" s="2" t="n">
+        <v>0.5709344378000616</v>
+      </c>
+      <c r="C147" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D147" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>-0.157842714836272</v>
+      </c>
+      <c r="B148" s="2" t="n">
+        <v>0.5845079217333469</v>
+      </c>
+      <c r="C148" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D148" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>-0.2836029944541883</v>
+      </c>
+      <c r="B149" s="2" t="n">
+        <v>0.6342070147233726</v>
+      </c>
+      <c r="C149" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D149" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>-0.329832590184382</v>
+      </c>
+      <c r="B150" s="2" t="n">
+        <v>0.6038511057039447</v>
+      </c>
+      <c r="C150" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D150" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>-0.4554755239409025</v>
+      </c>
+      <c r="B151" s="2" t="n">
+        <v>0.7673936684077308</v>
+      </c>
+      <c r="C151" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D151" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>-0.08453945867081027</v>
+      </c>
+      <c r="B152" s="2" t="n">
+        <v>0.5492402237162086</v>
+      </c>
+      <c r="C152" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D152" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>-0.2085933993350367</v>
+      </c>
+      <c r="B153" s="2" t="n">
+        <v>0.6532395866257504</v>
+      </c>
+      <c r="C153" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D153" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>-0.03696692084497116</v>
+      </c>
+      <c r="B154" s="2" t="n">
+        <v>0.6049677321415931</v>
+      </c>
+      <c r="C154" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D154" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>-0.1313957365601011</v>
+      </c>
+      <c r="B155" s="2" t="n">
+        <v>0.5067502018398069</v>
+      </c>
+      <c r="C155" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D155" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>-0.1940291757144944</v>
+      </c>
+      <c r="B156" s="2" t="n">
+        <v>0.4684807860080382</v>
+      </c>
+      <c r="C156" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D156" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>-0.2824651484736453</v>
+      </c>
+      <c r="B157" s="2" t="n">
+        <v>0.5657677127830365</v>
+      </c>
+      <c r="C157" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D157" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>-0.084262894601506</v>
+      </c>
+      <c r="B158" s="2" t="n">
+        <v>0.6259163211916584</v>
+      </c>
+      <c r="C158" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D158" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>-0.2989336740322016</v>
+      </c>
+      <c r="B159" s="2" t="n">
+        <v>0.5321238877640403</v>
+      </c>
+      <c r="C159" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D159" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>-0.1713333642117298</v>
+      </c>
+      <c r="B160" s="2" t="n">
+        <v>0.551676056192684</v>
+      </c>
+      <c r="C160" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D160" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>-0.1519743833458101</v>
+      </c>
+      <c r="B161" s="2" t="n">
+        <v>0.4598514157469473</v>
+      </c>
+      <c r="C161" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D161" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>-0.09163002850771329</v>
+      </c>
+      <c r="B162" s="2" t="n">
+        <v>0.519123167668027</v>
+      </c>
+      <c r="C162" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D162" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>0.3986855015784986</v>
+      </c>
+      <c r="B163" s="2" t="n">
+        <v>0.5874180926006859</v>
+      </c>
+      <c r="C163" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D163" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>0.2422091570337124</v>
+      </c>
+      <c r="B164" s="2" t="n">
+        <v>0.3864334793611968</v>
+      </c>
+      <c r="C164" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D164" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>0.1766296726367239</v>
+      </c>
+      <c r="B165" s="2" t="n">
+        <v>0.2832122879574352</v>
+      </c>
+      <c r="C165" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D165" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>0.104271300965589</v>
+      </c>
+      <c r="B166" s="2" t="n">
+        <v>0.2269131550130964</v>
+      </c>
+      <c r="C166" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D166" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>0.07367344480910243</v>
+      </c>
+      <c r="B167" s="2" t="n">
+        <v>0.1795810167314128</v>
+      </c>
+      <c r="C167" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D167" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>0.3354643715312576</v>
+      </c>
+      <c r="B168" s="2" t="n">
+        <v>0.3599012083143873</v>
+      </c>
+      <c r="C168" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D168" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>0.0957430169990323</v>
+      </c>
+      <c r="B169" s="2" t="n">
+        <v>-0.2057193369308133</v>
+      </c>
+      <c r="C169" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D169" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>-0.12714392012047</v>
+      </c>
+      <c r="B170" s="2" t="n">
+        <v>-0.323468348114244</v>
+      </c>
+      <c r="C170" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D170" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>0.09099847047351572</v>
+      </c>
+      <c r="B171" s="2" t="n">
+        <v>0.1234357060313387</v>
+      </c>
+      <c r="C171" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D171" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>0.2668640143378721</v>
+      </c>
+      <c r="B172" s="2" t="n">
+        <v>0.4331875582344297</v>
+      </c>
+      <c r="C172" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D172" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>0.1742217141274522</v>
+      </c>
+      <c r="B173" s="2" t="n">
+        <v>0.3529533289074802</v>
+      </c>
+      <c r="C173" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D173" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>-0.04848163521554063</v>
+      </c>
+      <c r="B174" s="2" t="n">
+        <v>0.240829800304325</v>
+      </c>
+      <c r="C174" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D174" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>-0.9037795984255216</v>
+      </c>
+      <c r="B175" s="2" t="n">
+        <v>0.4015257870202158</v>
+      </c>
+      <c r="C175" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D175" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>0.001935784408054998</v>
+      </c>
+      <c r="B176" s="2" t="n">
+        <v>-0.001896961857894197</v>
+      </c>
+      <c r="C176" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D176" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>0.05996626162656223</v>
+      </c>
+      <c r="B177" s="2" t="n">
+        <v>0.2351507532266981</v>
+      </c>
+      <c r="C177" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D177" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>0.2607870269471648</v>
+      </c>
+      <c r="B178" s="2" t="n">
+        <v>0.3517030666380205</v>
+      </c>
+      <c r="C178" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D178" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>-0.08253160682866753</v>
+      </c>
+      <c r="B179" s="2" t="n">
+        <v>0.06581870437629916</v>
+      </c>
+      <c r="C179" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D179" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>0.1444717025777825</v>
+      </c>
+      <c r="B180" s="2" t="n">
+        <v>0.1525773832276275</v>
+      </c>
+      <c r="C180" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D180" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>0.04166284169296481</v>
+      </c>
+      <c r="B181" s="2" t="n">
+        <v>0.1806712534119851</v>
+      </c>
+      <c r="C181" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D181" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>-0.2446102795004556</v>
+      </c>
+      <c r="B182" s="2" t="n">
+        <v>0.176273379940221</v>
+      </c>
+      <c r="C182" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D182" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>-0.2108838670557968</v>
+      </c>
+      <c r="B183" s="2" t="n">
+        <v>0.2219738352359613</v>
+      </c>
+      <c r="C183" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D183" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>-0.1187437678681786</v>
+      </c>
+      <c r="B184" s="2" t="n">
+        <v>0.1953983911242432</v>
+      </c>
+      <c r="C184" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D184" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>-0.1670042386392387</v>
+      </c>
+      <c r="B185" s="2" t="n">
+        <v>0.00816970503088996</v>
+      </c>
+      <c r="C185" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D185" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>-0.4311754654695771</v>
+      </c>
+      <c r="B186" s="2" t="n">
+        <v>0.1670179418034726</v>
+      </c>
+      <c r="C186" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D186" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>-0.3158648601234441</v>
+      </c>
+      <c r="B187" s="2" t="n">
+        <v>0.2560140572837957</v>
+      </c>
+      <c r="C187" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D187" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>-0.07354046290096554</v>
+      </c>
+      <c r="B188" s="2" t="n">
+        <v>0.1618352587892333</v>
+      </c>
+      <c r="C188" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D188" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>-0.57005449448889</v>
+      </c>
+      <c r="B189" s="2" t="n">
+        <v>0.1247623203689023</v>
+      </c>
+      <c r="C189" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D189" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>-0.2048077188640851</v>
+      </c>
+      <c r="B190" s="2" t="n">
+        <v>0.2502077972706562</v>
+      </c>
+      <c r="C190" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D190" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>-0.510237508646096</v>
+      </c>
+      <c r="B191" s="2" t="n">
+        <v>-0.3129729984179789</v>
+      </c>
+      <c r="C191" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D191" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>-0.5955920814111183</v>
+      </c>
+      <c r="B192" s="2" t="n">
+        <v>0.01266414171482471</v>
+      </c>
+      <c r="C192" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D192" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>-0.2956428369360546</v>
+      </c>
+      <c r="B193" s="2" t="n">
+        <v>-0.109161411873336</v>
+      </c>
+      <c r="C193" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D193" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>-0.2172275289803428</v>
+      </c>
+      <c r="B194" s="2" t="n">
+        <v>-0.1571297776111039</v>
+      </c>
+      <c r="C194" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D194" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>0.005177815666734271</v>
+      </c>
+      <c r="B195" s="2" t="n">
+        <v>0.7637060918804632</v>
+      </c>
+      <c r="C195" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D195" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>0.8768917609762531</v>
+      </c>
+      <c r="B196" s="2" t="n">
+        <v>-0.2646876698438291</v>
+      </c>
+      <c r="C196" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D196" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>0.7099930605502154</v>
+      </c>
+      <c r="B197" s="2" t="n">
+        <v>-0.06706828635929118</v>
+      </c>
+      <c r="C197" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D197" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>0.7370163578570348</v>
+      </c>
+      <c r="B198" s="2" t="n">
+        <v>-0.1926770608089465</v>
+      </c>
+      <c r="C198" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D198" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>0.7131884426692394</v>
+      </c>
+      <c r="B199" s="2" t="n">
+        <v>-0.1674680137572559</v>
+      </c>
+      <c r="C199" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D199" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>0.6391305147790622</v>
+      </c>
+      <c r="B200" s="2" t="n">
+        <v>-0.1129079502275642</v>
+      </c>
+      <c r="C200" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D200" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>0.9695227542288352</v>
+      </c>
+      <c r="B201" s="2" t="n">
+        <v>-0.2675390097549389</v>
+      </c>
+      <c r="C201" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D201" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>0.6271793219265652</v>
+      </c>
+      <c r="B202" s="2" t="n">
+        <v>-0.01316463451343922</v>
+      </c>
+      <c r="C202" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D202" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>0.8108850576911745</v>
+      </c>
+      <c r="B203" s="2" t="n">
+        <v>0.0005790945856468389</v>
+      </c>
+      <c r="C203" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D203" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>0.8472223248503212</v>
+      </c>
+      <c r="B204" s="2" t="n">
+        <v>-0.05314697031636394</v>
+      </c>
+      <c r="C204" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D204" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>0.9857575851888434</v>
+      </c>
+      <c r="B205" s="2" t="n">
+        <v>-0.1898891438653154</v>
+      </c>
+      <c r="C205" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D205" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>0.5935912167763189</v>
+      </c>
+      <c r="B206" s="2" t="n">
+        <v>-0.006447134817043274</v>
+      </c>
+      <c r="C206" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D206" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>0.8098238194059231</v>
+      </c>
+      <c r="B207" s="2" t="n">
+        <v>-0.1694931009775057</v>
+      </c>
+      <c r="C207" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D207" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>0.7616061116113121</v>
+      </c>
+      <c r="B208" s="2" t="n">
+        <v>0.04579260835177618</v>
+      </c>
+      <c r="C208" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D208" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>0.682144762436813</v>
+      </c>
+      <c r="B209" s="2" t="n">
+        <v>-0.08752788999353443</v>
+      </c>
+      <c r="C209" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D209" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>1.139704086678994</v>
+      </c>
+      <c r="B210" s="2" t="n">
+        <v>-0.3384996966290558</v>
+      </c>
+      <c r="C210" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D210" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>0.9280908138955867</v>
+      </c>
+      <c r="B211" s="2" t="n">
+        <v>-0.2381550675719897</v>
+      </c>
+      <c r="C211" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D211" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>-0.9984709522671101</v>
+      </c>
+      <c r="B212" s="2" t="n">
+        <v>-0.126841281030508</v>
+      </c>
+      <c r="C212" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D212" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>0.6694636228055355</v>
+      </c>
+      <c r="B213" s="2" t="n">
+        <v>-0.05254788961379191</v>
+      </c>
+      <c r="C213" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D213" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>0.8664555916092901</v>
+      </c>
+      <c r="B214" s="2" t="n">
+        <v>-0.001708230756087849</v>
+      </c>
+      <c r="C214" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D214" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>0.8191149314184446</v>
+      </c>
+      <c r="B215" s="2" t="n">
+        <v>-0.2036538703153541</v>
+      </c>
+      <c r="C215" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D215" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>1.055229396772539</v>
+      </c>
+      <c r="B216" s="2" t="n">
+        <v>-0.02446531975190986</v>
+      </c>
+      <c r="C216" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D216" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>1.095545330695425</v>
+      </c>
+      <c r="B217" s="2" t="n">
+        <v>-0.08191927797776866</v>
+      </c>
+      <c r="C217" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D217" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>0.70731319010539</v>
+      </c>
+      <c r="B218" s="2" t="n">
+        <v>0.1521990659127152</v>
+      </c>
+      <c r="C218" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D218" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>0.7936639971677557</v>
+      </c>
+      <c r="B219" s="2" t="n">
+        <v>0.09876392683553673</v>
+      </c>
+      <c r="C219" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D219" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>1.402170503856188</v>
+      </c>
+      <c r="B220" s="2" t="n">
+        <v>-0.4187987177759128</v>
+      </c>
+      <c r="C220" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D220" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>0.6018409223437535</v>
+      </c>
+      <c r="B221" s="2" t="n">
+        <v>0.08145290517598891</v>
+      </c>
+      <c r="C221" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D221" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>1.0838290998447</v>
+      </c>
+      <c r="B222" s="2" t="n">
+        <v>-0.2773072750903001</v>
+      </c>
+      <c r="C222" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D222" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>1.277455769994763</v>
+      </c>
+      <c r="B223" s="2" t="n">
+        <v>-0.3458207090016526</v>
+      </c>
+      <c r="C223" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D223" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>1.351186577722409</v>
+      </c>
+      <c r="B224" s="2" t="n">
+        <v>-0.1452123489544757</v>
+      </c>
+      <c r="C224" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D224" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>0.8868399428522469</v>
+      </c>
+      <c r="B225" s="2" t="n">
+        <v>0.02910732890442948</v>
+      </c>
+      <c r="C225" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D225" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>-1.890886365880799</v>
+      </c>
+      <c r="B226" s="2" t="n">
+        <v>0.2502341346408526</v>
+      </c>
+      <c r="C226" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D226" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>-1.421415737656753</v>
+      </c>
+      <c r="B227" s="2" t="n">
+        <v>-0.4024382724588851</v>
+      </c>
+      <c r="C227" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D227" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>-1.00327312126774</v>
+      </c>
+      <c r="B228" s="2" t="n">
+        <v>-0.5530747700886228</v>
+      </c>
+      <c r="C228" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D228" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>0.7680518679123038</v>
+      </c>
+      <c r="B229" s="2" t="n">
+        <v>-1.149711996799515</v>
+      </c>
+      <c r="C229" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D229" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>-0.6441924854158677</v>
+      </c>
+      <c r="B230" s="2" t="n">
+        <v>-0.6273691100943397</v>
+      </c>
+      <c r="C230" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D230" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>-0.4242029103413642</v>
+      </c>
+      <c r="B231" s="2" t="n">
+        <v>-0.1861897396413438</v>
+      </c>
+      <c r="C231" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D231" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>-0.4598484837936403</v>
+      </c>
+      <c r="B232" s="2" t="n">
+        <v>-0.8680656454213054</v>
+      </c>
+      <c r="C232" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D232" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>-0.1505863663201148</v>
+      </c>
+      <c r="B233" s="2" t="n">
+        <v>-0.4882450629446936</v>
+      </c>
+      <c r="C233" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D233" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>-0.3078848997350783</v>
+      </c>
+      <c r="B234" s="2" t="n">
+        <v>-0.7228750845553562</v>
+      </c>
+      <c r="C234" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D234" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>-0.8051798400417706</v>
+      </c>
+      <c r="B235" s="2" t="n">
+        <v>-0.2483657606842062</v>
+      </c>
+      <c r="C235" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D235" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>-0.1026555789774281</v>
+      </c>
+      <c r="B236" s="2" t="n">
+        <v>-0.6145106314485842</v>
+      </c>
+      <c r="C236" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D236" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>-1.297632619618333</v>
+      </c>
+      <c r="B237" s="2" t="n">
+        <v>-0.05346528848377909</v>
+      </c>
+      <c r="C237" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D237" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>-0.2901015792991956</v>
+      </c>
+      <c r="B238" s="2" t="n">
+        <v>-0.4915174693727227</v>
+      </c>
+      <c r="C238" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D238" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>-0.4292189861322049</v>
+      </c>
+      <c r="B239" s="2" t="n">
+        <v>-0.5142571413580224</v>
+      </c>
+      <c r="C239" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D239" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>-0.3649239648595585</v>
+      </c>
+      <c r="B240" s="2" t="n">
+        <v>-0.7463520876198694</v>
+      </c>
+      <c r="C240" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D240" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>-0.8182929470738475</v>
+      </c>
+      <c r="B241" s="2" t="n">
+        <v>-0.838179395851301</v>
+      </c>
+      <c r="C241" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D241" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>-0.2499223449951751</v>
+      </c>
+      <c r="B242" s="2" t="n">
+        <v>-0.4392074189925548</v>
+      </c>
+      <c r="C242" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D242" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>-0.7651148389514805</v>
+      </c>
+      <c r="B243" s="2" t="n">
+        <v>-0.4163687018514778</v>
+      </c>
+      <c r="C243" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D243" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>-0.09016782970011351</v>
+      </c>
+      <c r="B244" s="2" t="n">
+        <v>-0.2614569235621819</v>
+      </c>
+      <c r="C244" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D244" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>-0.1159266176945735</v>
+      </c>
+      <c r="B245" s="2" t="n">
+        <v>-0.4243740967668275</v>
+      </c>
+      <c r="C245" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D245" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>-0.5315122762508846</v>
+      </c>
+      <c r="B246" s="2" t="n">
+        <v>-0.6379054481973321</v>
+      </c>
+      <c r="C246" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D246" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>-0.387864735381572</v>
+      </c>
+      <c r="B247" s="2" t="n">
+        <v>-1.186393920815586</v>
+      </c>
+      <c r="C247" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D247" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>-0.1286795165216851</v>
+      </c>
+      <c r="B248" s="2" t="n">
+        <v>-0.4586809467450192</v>
+      </c>
+      <c r="C248" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D248" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>-0.1367594147511719</v>
+      </c>
+      <c r="B249" s="2" t="n">
+        <v>-0.622979732682123</v>
+      </c>
+      <c r="C249" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D249" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
+        <v>-0.2881610753116799</v>
+      </c>
+      <c r="B250" s="2" t="n">
+        <v>-0.5917975803868232</v>
+      </c>
+      <c r="C250" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D250" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="n">
+        <v>-0.05078433822969017</v>
+      </c>
+      <c r="B251" s="2" t="n">
+        <v>-0.442873352533081</v>
+      </c>
+      <c r="C251" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D251" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="n">
+        <v>-0.1793546825508772</v>
+      </c>
+      <c r="B252" s="2" t="n">
+        <v>-0.3253909763646173</v>
+      </c>
+      <c r="C252" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D252" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="n">
+        <v>-0.1368378657553909</v>
+      </c>
+      <c r="B253" s="2" t="n">
+        <v>-0.06868175457103191</v>
+      </c>
+      <c r="C253" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D253" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="n">
+        <v>-0.1913631813837254</v>
+      </c>
+      <c r="B254" s="2" t="n">
+        <v>-0.2665763072805244</v>
+      </c>
+      <c r="C254" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D254" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="n">
+        <v>-0.8276529578395651</v>
+      </c>
+      <c r="B255" s="2" t="n">
+        <v>-0.1545005303374216</v>
+      </c>
+      <c r="C255" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D255" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="n">
+        <v>-0.5428433147419114</v>
+      </c>
+      <c r="B256" s="2" t="n">
+        <v>-0.005021673043172559</v>
+      </c>
+      <c r="C256" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D256" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="n">
+        <v>-0.6533340118994901</v>
+      </c>
+      <c r="B257" s="2" t="n">
+        <v>-0.2679346520659427</v>
+      </c>
+      <c r="C257" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D257" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
+        <v>-1.094341061038713</v>
+      </c>
+      <c r="B258" s="2" t="n">
+        <v>-0.6502275626956879</v>
+      </c>
+      <c r="C258" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D258" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
+        <v>-0.8493309313610968</v>
+      </c>
+      <c r="B259" s="2" t="n">
+        <v>-0.6068870377244157</v>
+      </c>
+      <c r="C259" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D259" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
+        <v>0.1520809920423424</v>
+      </c>
+      <c r="B260" s="2" t="n">
+        <v>0.6137580756117595</v>
+      </c>
+      <c r="C260" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D260" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
+        <v>0.1176385897487958</v>
+      </c>
+      <c r="B261" s="2" t="n">
+        <v>0.6056541542667905</v>
+      </c>
+      <c r="C261" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D261" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>0.2996854186171554</v>
+      </c>
+      <c r="B262" s="2" t="n">
+        <v>0.5477720870473103</v>
+      </c>
+      <c r="C262" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D262" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
+        <v>0.2796793640566624</v>
+      </c>
+      <c r="B263" s="2" t="n">
+        <v>0.6271032642913391</v>
+      </c>
+      <c r="C263" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D263" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
+        <v>0.2685190456038969</v>
+      </c>
+      <c r="B264" s="2" t="n">
+        <v>0.5767392435299228</v>
+      </c>
+      <c r="C264" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D264" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
+        <v>0.1520701817424002</v>
+      </c>
+      <c r="B265" s="2" t="n">
+        <v>0.6592501875576511</v>
+      </c>
+      <c r="C265" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D265" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
+        <v>0.1056850494324954</v>
+      </c>
+      <c r="B266" s="2" t="n">
+        <v>0.6216258661524204</v>
+      </c>
+      <c r="C266" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D266" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
+        <v>0.2322969202394492</v>
+      </c>
+      <c r="B267" s="2" t="n">
+        <v>0.6489267128415204</v>
+      </c>
+      <c r="C267" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D267" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
+        <v>0.2201947147207478</v>
+      </c>
+      <c r="B268" s="2" t="n">
+        <v>0.591351865684451</v>
+      </c>
+      <c r="C268" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D268" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
+        <v>0.1237345269365891</v>
+      </c>
+      <c r="B269" s="2" t="n">
+        <v>0.7073377040601502</v>
+      </c>
+      <c r="C269" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D269" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
+        <v>0.2207066234645405</v>
+      </c>
+      <c r="B270" s="2" t="n">
+        <v>0.5741251776200044</v>
+      </c>
+      <c r="C270" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D270" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
+        <v>0.1856064722891514</v>
+      </c>
+      <c r="B271" s="2" t="n">
+        <v>0.5921797833718397</v>
+      </c>
+      <c r="C271" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D271" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="n">
+        <v>0.1844062882448668</v>
+      </c>
+      <c r="B272" s="2" t="n">
+        <v>0.6244904104069229</v>
+      </c>
+      <c r="C272" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D272" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="n">
+        <v>0.2573828090127946</v>
+      </c>
+      <c r="B273" s="2" t="n">
+        <v>0.6415856715542434</v>
+      </c>
+      <c r="C273" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D273" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="n">
+        <v>0.1927738238834201</v>
+      </c>
+      <c r="B274" s="2" t="n">
+        <v>0.5928115140134694</v>
+      </c>
+      <c r="C274" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D274" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="n">
+        <v>0.2364860597160719</v>
+      </c>
+      <c r="B275" s="2" t="n">
+        <v>0.5516335975628484</v>
+      </c>
+      <c r="C275" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D275" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="n">
+        <v>0.2590003151653414</v>
+      </c>
+      <c r="B276" s="2" t="n">
+        <v>0.5845834467120647</v>
+      </c>
+      <c r="C276" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D276" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="n">
+        <v>0.1679338203317546</v>
+      </c>
+      <c r="B277" s="2" t="n">
+        <v>0.6725283174230453</v>
+      </c>
+      <c r="C277" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D277" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="n">
+        <v>0.1831191828718323</v>
+      </c>
+      <c r="B278" s="2" t="n">
+        <v>0.6168892228170643</v>
+      </c>
+      <c r="C278" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D278" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="n">
+        <v>0.2658924704748639</v>
+      </c>
+      <c r="B279" s="2" t="n">
+        <v>0.6266424583162339</v>
+      </c>
+      <c r="C279" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D279" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="n">
+        <v>0.241732787210415</v>
+      </c>
+      <c r="B280" s="2" t="n">
+        <v>0.6334652125107224</v>
+      </c>
+      <c r="C280" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D280" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="n">
+        <v>0.1989739754695582</v>
+      </c>
+      <c r="B281" s="2" t="n">
+        <v>0.6386906003463511</v>
+      </c>
+      <c r="C281" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D281" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="n">
+        <v>0.2799707711680593</v>
+      </c>
+      <c r="B282" s="2" t="n">
+        <v>0.6181135252638573</v>
+      </c>
+      <c r="C282" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D282" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="n">
+        <v>0.2428176380880572</v>
+      </c>
+      <c r="B283" s="2" t="n">
+        <v>0.5525914374808435</v>
+      </c>
+      <c r="C283" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D283" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="n">
+        <v>0.1598369937196352</v>
+      </c>
+      <c r="B284" s="2" t="n">
+        <v>0.5976110711773372</v>
+      </c>
+      <c r="C284" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D284" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="n">
+        <v>0.2741842900323178</v>
+      </c>
+      <c r="B285" s="2" t="n">
+        <v>0.5903908686317569</v>
+      </c>
+      <c r="C285" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D285" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="n">
+        <v>0.3116731160954501</v>
+      </c>
+      <c r="B286" s="2" t="n">
+        <v>0.609861294033973</v>
+      </c>
+      <c r="C286" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D286" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="n">
+        <v>0.2319252480767971</v>
+      </c>
+      <c r="B287" s="2" t="n">
+        <v>0.6665391178831781</v>
+      </c>
+      <c r="C287" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D287" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="n">
+        <v>0.1751727462820913</v>
+      </c>
+      <c r="B288" s="2" t="n">
+        <v>0.5926764043092889</v>
+      </c>
+      <c r="C288" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D288" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="n">
+        <v>0.2783482476018967</v>
+      </c>
+      <c r="B289" s="2" t="n">
+        <v>0.6141000744140068</v>
+      </c>
+      <c r="C289" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D289" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="n">
+        <v>0.294294856504034</v>
+      </c>
+      <c r="B290" s="2" t="n">
+        <v>0.5801345174239321</v>
+      </c>
+      <c r="C290" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D290" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="n">
+        <v>0.1881405765497823</v>
+      </c>
+      <c r="B291" s="2" t="n">
+        <v>0.6429338088705802</v>
+      </c>
+      <c r="C291" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D291" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="n">
+        <v>-0.06720131771254943</v>
+      </c>
+      <c r="B292" s="2" t="n">
+        <v>-0.9636063881751373</v>
+      </c>
+      <c r="C292" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D292" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="n">
+        <v>0.009719396661914063</v>
+      </c>
+      <c r="B293" s="2" t="n">
+        <v>-0.8804571612831454</v>
+      </c>
+      <c r="C293" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D293" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="n">
+        <v>0.03894892534867306</v>
+      </c>
+      <c r="B294" s="2" t="n">
+        <v>-1.120703592238341</v>
+      </c>
+      <c r="C294" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D294" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="n">
+        <v>0.3381904778563214</v>
+      </c>
+      <c r="B295" s="2" t="n">
+        <v>-0.7705104871831746</v>
+      </c>
+      <c r="C295" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D295" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="n">
+        <v>0.2967708942587587</v>
+      </c>
+      <c r="B296" s="2" t="n">
+        <v>-0.9685151028335914</v>
+      </c>
+      <c r="C296" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D296" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="n">
+        <v>0.08088758820395271</v>
+      </c>
+      <c r="B297" s="2" t="n">
+        <v>-0.6926383850402321</v>
+      </c>
+      <c r="C297" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D297" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="2" t="n">
+        <v>0.2213045671768466</v>
+      </c>
+      <c r="B298" s="2" t="n">
+        <v>-0.9239458596487921</v>
+      </c>
+      <c r="C298" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D298" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="2" t="n">
+        <v>0.3723757024972559</v>
+      </c>
+      <c r="B299" s="2" t="n">
+        <v>-1.020386980749091</v>
+      </c>
+      <c r="C299" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D299" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="2" t="n">
+        <v>0.1685094237085227</v>
+      </c>
+      <c r="B300" s="2" t="n">
+        <v>-0.7844011173206079</v>
+      </c>
+      <c r="C300" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D300" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="2" t="n">
+        <v>0.2869489123799434</v>
+      </c>
+      <c r="B301" s="2" t="n">
+        <v>-0.9824623059988157</v>
+      </c>
+      <c r="C301" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D301" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="2" t="n">
+        <v>0.2332512554409026</v>
+      </c>
+      <c r="B302" s="2" t="n">
+        <v>-0.6025861656121739</v>
+      </c>
+      <c r="C302" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D302" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="2" t="n">
+        <v>0.05802275752955981</v>
+      </c>
+      <c r="B303" s="2" t="n">
+        <v>-0.6845475530229042</v>
+      </c>
+      <c r="C303" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D303" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="2" t="n">
+        <v>0.4326168818102785</v>
+      </c>
+      <c r="B304" s="2" t="n">
+        <v>-0.7931016883550522</v>
+      </c>
+      <c r="C304" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D304" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="2" t="n">
+        <v>-0.2801703063010932</v>
+      </c>
+      <c r="B305" s="2" t="n">
+        <v>-1.062978557946574</v>
+      </c>
+      <c r="C305" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D305" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="2" t="n">
+        <v>0.3540702549548971</v>
+      </c>
+      <c r="B306" s="2" t="n">
+        <v>-1.011457193552454</v>
+      </c>
+      <c r="C306" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D306" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="2" t="n">
+        <v>0.2144518968698037</v>
+      </c>
+      <c r="B307" s="2" t="n">
+        <v>-0.9895839339755607</v>
+      </c>
+      <c r="C307" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D307" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="2" t="n">
+        <v>0.2312603820176892</v>
+      </c>
+      <c r="B308" s="2" t="n">
+        <v>-1.008044744224511</v>
+      </c>
+      <c r="C308" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D308" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="2" t="n">
+        <v>-0.1988848916077894</v>
+      </c>
+      <c r="B309" s="2" t="n">
+        <v>-1.321617063107737</v>
+      </c>
+      <c r="C309" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D309" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="2" t="n">
+        <v>0.006313536286378426</v>
+      </c>
+      <c r="B310" s="2" t="n">
+        <v>-1.05134819724913</v>
+      </c>
+      <c r="C310" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D310" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="2" t="n">
+        <v>-0.1073753443336536</v>
+      </c>
+      <c r="B311" s="2" t="n">
+        <v>-1.147082110725481</v>
+      </c>
+      <c r="C311" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D311" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="2" t="n">
+        <v>0.04715285895299288</v>
+      </c>
+      <c r="B312" s="2" t="n">
+        <v>-0.844567002512524</v>
+      </c>
+      <c r="C312" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D312" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="2" t="n">
+        <v>0.1384696544115877</v>
+      </c>
+      <c r="B313" s="2" t="n">
+        <v>-0.9777257434005753</v>
+      </c>
+      <c r="C313" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D313" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="2" t="n">
+        <v>0.06632558985920982</v>
+      </c>
+      <c r="B314" s="2" t="n">
+        <v>-0.6474441766948529</v>
+      </c>
+      <c r="C314" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D314" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="2" t="n">
+        <v>0.293863045587499</v>
+      </c>
+      <c r="B315" s="2" t="n">
+        <v>-0.9276311158527354</v>
+      </c>
+      <c r="C315" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D315" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="2" t="n">
+        <v>-0.06938795730417445</v>
+      </c>
+      <c r="B316" s="2" t="n">
+        <v>-0.7673456518389502</v>
+      </c>
+      <c r="C316" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D316" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="2" t="n">
+        <v>0.2940517035231721</v>
+      </c>
+      <c r="B317" s="2" t="n">
+        <v>-0.845115014420656</v>
+      </c>
+      <c r="C317" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D317" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="2" t="n">
+        <v>0.1093610822884225</v>
+      </c>
+      <c r="B318" s="2" t="n">
+        <v>-0.5164894880544866</v>
+      </c>
+      <c r="C318" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D318" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="2" t="n">
+        <v>0.2287594145822466</v>
+      </c>
+      <c r="B319" s="2" t="n">
+        <v>-0.6826847484562747</v>
+      </c>
+      <c r="C319" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D319" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="2" t="n">
+        <v>0.1342424426321328</v>
+      </c>
+      <c r="B320" s="2" t="n">
+        <v>-0.9372086990635767</v>
+      </c>
+      <c r="C320" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D320" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="2" t="n">
+        <v>0.3766576322484849</v>
+      </c>
+      <c r="B321" s="2" t="n">
+        <v>-0.8280380768655928</v>
+      </c>
+      <c r="C321" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D321" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="2" t="n">
+        <v>0.4204199116228852</v>
+      </c>
+      <c r="B322" s="2" t="n">
+        <v>-0.9742371409784651</v>
+      </c>
+      <c r="C322" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D322" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="2" t="n">
+        <v>0.05517248008727032</v>
+      </c>
+      <c r="B323" s="2" t="n">
+        <v>-0.8967054979567313</v>
+      </c>
+      <c r="C323" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D323" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="2" t="n">
+        <v>0.04733756134684947</v>
+      </c>
+      <c r="B324" s="2" t="n">
+        <v>-0.7595885650581441</v>
+      </c>
+      <c r="C324" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D324" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="2" t="n">
+        <v>0.227740480576544</v>
+      </c>
+      <c r="B325" s="2" t="n">
+        <v>-0.7622282320451924</v>
+      </c>
+      <c r="C325" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D325" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="2" t="n">
+        <v>0.4109175624057855</v>
+      </c>
+      <c r="B326" s="2" t="n">
+        <v>-0.7385047152204851</v>
+      </c>
+      <c r="C326" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D326" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="2" t="n">
+        <v>0.2273131040143651</v>
+      </c>
+      <c r="B327" s="2" t="n">
+        <v>-1.078922326777378</v>
+      </c>
+      <c r="C327" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D327" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="2" t="n">
+        <v>0.3193687379081325</v>
+      </c>
+      <c r="B328" s="2" t="n">
+        <v>-0.732669036587023</v>
+      </c>
+      <c r="C328" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D328" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="2" t="n">
+        <v>0.2613514271002715</v>
+      </c>
+      <c r="B329" s="2" t="n">
+        <v>-0.4942725194972703</v>
+      </c>
+      <c r="C329" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D329" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="2" t="n">
+        <v>0.1336627735743016</v>
+      </c>
+      <c r="B330" s="2" t="n">
+        <v>-1.375231038770469</v>
+      </c>
+      <c r="C330" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D330" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="2" t="n">
+        <v>0.1279805687344048</v>
+      </c>
+      <c r="B331" s="2" t="n">
+        <v>-1.01431896023432</v>
+      </c>
+      <c r="C331" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D331" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="2" t="n">
+        <v>-0.6163947388689418</v>
+      </c>
+      <c r="B332" s="2" t="n">
+        <v>-0.3304888407227716</v>
+      </c>
+      <c r="C332" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D332" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="2" t="n">
+        <v>-0.5995111984486835</v>
+      </c>
+      <c r="B333" s="2" t="n">
+        <v>0.8102733699645078</v>
+      </c>
+      <c r="C333" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D333" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="2" t="n">
+        <v>-0.9097593341297795</v>
+      </c>
+      <c r="B334" s="2" t="n">
+        <v>1.080148075508728</v>
+      </c>
+      <c r="C334" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D334" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="2" t="n">
+        <v>-0.461922061552885</v>
+      </c>
+      <c r="B335" s="2" t="n">
+        <v>0.8561163971891474</v>
+      </c>
+      <c r="C335" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D335" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="2" t="n">
+        <v>-0.2931313309853162</v>
+      </c>
+      <c r="B336" s="2" t="n">
+        <v>1.043178615419787</v>
+      </c>
+      <c r="C336" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D336" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="2" t="n">
+        <v>-0.3031152838671531</v>
+      </c>
+      <c r="B337" s="2" t="n">
+        <v>0.7773633716942412</v>
+      </c>
+      <c r="C337" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D337" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="2" t="n">
+        <v>-0.3406131220145461</v>
+      </c>
+      <c r="B338" s="2" t="n">
+        <v>0.8784262470755942</v>
+      </c>
+      <c r="C338" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D338" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="2" t="n">
+        <v>-0.130713586000217</v>
+      </c>
+      <c r="B339" s="2" t="n">
+        <v>0.7924366382711467</v>
+      </c>
+      <c r="C339" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D339" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="2" t="n">
+        <v>-0.332049747634228</v>
+      </c>
+      <c r="B340" s="2" t="n">
+        <v>0.7207948309353425</v>
+      </c>
+      <c r="C340" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D340" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="2" t="n">
+        <v>-0.2098839907846247</v>
+      </c>
+      <c r="B341" s="2" t="n">
+        <v>0.6892841534685976</v>
+      </c>
+      <c r="C341" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D341" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="2" t="n">
+        <v>-0.3231699372260098</v>
+      </c>
+      <c r="B342" s="2" t="n">
+        <v>0.7822060966407963</v>
+      </c>
+      <c r="C342" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D342" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="2" t="n">
+        <v>-0.1249054965316106</v>
+      </c>
+      <c r="B343" s="2" t="n">
+        <v>0.7643017719517075</v>
+      </c>
+      <c r="C343" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D343" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="2" t="n">
+        <v>-0.04564057939053784</v>
+      </c>
+      <c r="B344" s="2" t="n">
+        <v>0.6764369478996336</v>
+      </c>
+      <c r="C344" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D344" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="2" t="n">
+        <v>-0.3656923159325572</v>
+      </c>
+      <c r="B345" s="2" t="n">
+        <v>0.7473835301968682</v>
+      </c>
+      <c r="C345" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D345" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="2" t="n">
+        <v>-0.3618969125090481</v>
+      </c>
+      <c r="B346" s="2" t="n">
+        <v>0.8819627777166721</v>
+      </c>
+      <c r="C346" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D346" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="2" t="n">
+        <v>-0.2602754231742955</v>
+      </c>
+      <c r="B347" s="2" t="n">
+        <v>0.7295172773692533</v>
+      </c>
+      <c r="C347" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D347" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="2" t="n">
+        <v>-0.1989603226393613</v>
+      </c>
+      <c r="B348" s="2" t="n">
+        <v>0.7248880434045301</v>
+      </c>
+      <c r="C348" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D348" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="2" t="n">
+        <v>-0.002564976681706598</v>
+      </c>
+      <c r="B349" s="2" t="n">
+        <v>0.6940554973492403</v>
+      </c>
+      <c r="C349" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D349" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="2" t="n">
+        <v>-0.1773592099903659</v>
+      </c>
+      <c r="B350" s="2" t="n">
+        <v>0.7130634133042129</v>
+      </c>
+      <c r="C350" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D350" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="2" t="n">
+        <v>-0.3137725714060671</v>
+      </c>
+      <c r="B351" s="2" t="n">
+        <v>0.8297995469765406</v>
+      </c>
+      <c r="C351" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D351" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="2" t="n">
+        <v>-0.1740432468920594</v>
+      </c>
+      <c r="B352" s="2" t="n">
+        <v>0.7853590164505774</v>
+      </c>
+      <c r="C352" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D352" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="2" t="n">
+        <v>-0.0684747787478214</v>
+      </c>
+      <c r="B353" s="2" t="n">
+        <v>0.7304508243064809</v>
+      </c>
+      <c r="C353" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D353" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="2" t="n">
+        <v>-0.0563302400955748</v>
+      </c>
+      <c r="B354" s="2" t="n">
+        <v>0.6847085104462325</v>
+      </c>
+      <c r="C354" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D354" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="2" t="n">
+        <v>-0.07562660430111637</v>
+      </c>
+      <c r="B355" s="2" t="n">
+        <v>0.7071806212063577</v>
+      </c>
+      <c r="C355" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D355" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="2" t="n">
+        <v>0.003765650776398354</v>
+      </c>
+      <c r="B356" s="2" t="n">
+        <v>0.6769175578855282</v>
+      </c>
+      <c r="C356" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D356" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="2" t="n">
+        <v>-0.3876558984969797</v>
+      </c>
+      <c r="B357" s="2" t="n">
+        <v>0.8884155627943657</v>
+      </c>
+      <c r="C357" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D357" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="2" t="n">
+        <v>-0.3060223908274992</v>
+      </c>
+      <c r="B358" s="2" t="n">
+        <v>0.8035955943087983</v>
+      </c>
+      <c r="C358" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D358" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="2" t="n">
+        <v>-0.1591257767577053</v>
+      </c>
+      <c r="B359" s="2" t="n">
+        <v>0.7417369883142049</v>
+      </c>
+      <c r="C359" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D359" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="2" t="n">
+        <v>-0.192481728598874</v>
+      </c>
+      <c r="B360" s="2" t="n">
+        <v>0.701134323068386</v>
+      </c>
+      <c r="C360" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D360" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="2" t="n">
+        <v>-0.1371147801126247</v>
+      </c>
+      <c r="B361" s="2" t="n">
+        <v>0.758873279115919</v>
+      </c>
+      <c r="C361" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D361" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="2" t="n">
+        <v>-0.4015789294278631</v>
+      </c>
+      <c r="B362" s="2" t="n">
+        <v>0.8149149314118869</v>
+      </c>
+      <c r="C362" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D362" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="2" t="n">
+        <v>-0.2634641056817077</v>
+      </c>
+      <c r="B363" s="2" t="n">
+        <v>0.7789981770821371</v>
+      </c>
+      <c r="C363" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D363" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="2" t="n">
+        <v>0.04448687389525199</v>
+      </c>
+      <c r="B364" s="2" t="n">
+        <v>0.6834890598328403</v>
+      </c>
+      <c r="C364" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D364" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="2" t="n">
+        <v>-0.1022873475898435</v>
+      </c>
+      <c r="B365" s="2" t="n">
+        <v>0.3464262069218894</v>
+      </c>
+      <c r="C365" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D365" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="2" t="n">
+        <v>-0.0522187937963276</v>
+      </c>
+      <c r="B366" s="2" t="n">
+        <v>0.131420957058419</v>
+      </c>
+      <c r="C366" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D366" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="2" t="n">
+        <v>-0.272506276805453</v>
+      </c>
+      <c r="B367" s="2" t="n">
+        <v>0.7122129395830796</v>
+      </c>
+      <c r="C367" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D367" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="2" t="n">
+        <v>0.04056748442873177</v>
+      </c>
+      <c r="B368" s="2" t="n">
+        <v>0.5027811685515186</v>
+      </c>
+      <c r="C368" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D368" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="2" t="n">
+        <v>0.5021476368379791</v>
+      </c>
+      <c r="B369" s="2" t="n">
+        <v>0.8026979995754776</v>
+      </c>
+      <c r="C369" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D369" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="2" t="n">
+        <v>0.1666326797276962</v>
+      </c>
+      <c r="B370" s="2" t="n">
+        <v>0.2521604959514852</v>
+      </c>
+      <c r="C370" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D370" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="2" t="n">
+        <v>0.07086783655320063</v>
+      </c>
+      <c r="B371" s="2" t="n">
+        <v>0.3042249751437783</v>
+      </c>
+      <c r="C371" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D371" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="2" t="n">
+        <v>0.1295671698998957</v>
+      </c>
+      <c r="B372" s="2" t="n">
+        <v>0.3289700482603413</v>
+      </c>
+      <c r="C372" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D372" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="2" t="n">
+        <v>0.3119884809245838</v>
+      </c>
+      <c r="B373" s="2" t="n">
+        <v>0.4367868775684702</v>
+      </c>
+      <c r="C373" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D373" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="2" t="n">
+        <v>0.04444748357607478</v>
+      </c>
+      <c r="B374" s="2" t="n">
+        <v>0.2238258816030015</v>
+      </c>
+      <c r="C374" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D374" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="2" t="n">
+        <v>0.1270279185597719</v>
+      </c>
+      <c r="B375" s="2" t="n">
+        <v>0.2251787548059054</v>
+      </c>
+      <c r="C375" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D375" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="2" t="n">
+        <v>-0.1222352567661029</v>
+      </c>
+      <c r="B376" s="2" t="n">
+        <v>0.2502299870721507</v>
+      </c>
+      <c r="C376" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D376" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="2" t="n">
+        <v>-0.5650989441119697</v>
+      </c>
+      <c r="B377" s="2" t="n">
+        <v>0.2397250084527068</v>
+      </c>
+      <c r="C377" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D377" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="2" t="n">
+        <v>-0.3753776456673635</v>
+      </c>
+      <c r="B378" s="2" t="n">
+        <v>0.2595170803670852</v>
+      </c>
+      <c r="C378" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D378" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="2" t="n">
+        <v>-0.1886337296655609</v>
+      </c>
+      <c r="B379" s="2" t="n">
+        <v>0.2906920778718866</v>
+      </c>
+      <c r="C379" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D379" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="2" t="n">
+        <v>-0.03766643654629983</v>
+      </c>
+      <c r="B380" s="2" t="n">
+        <v>0.1899847467077585</v>
+      </c>
+      <c r="C380" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D380" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="2" t="n">
+        <v>-0.3848425156333609</v>
+      </c>
+      <c r="B381" s="2" t="n">
+        <v>0.186954421326945</v>
+      </c>
+      <c r="C381" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D381" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="2" t="n">
+        <v>-0.3300677085224721</v>
+      </c>
+      <c r="B382" s="2" t="n">
+        <v>0.1943894829722921</v>
+      </c>
+      <c r="C382" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D382" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="2" t="n">
+        <v>-0.43245239931995</v>
+      </c>
+      <c r="B383" s="2" t="n">
+        <v>0.4247965322005626</v>
+      </c>
+      <c r="C383" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D383" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="2" t="n">
+        <v>-0.439776568551862</v>
+      </c>
+      <c r="B384" s="2" t="n">
+        <v>0.2239377343455719</v>
+      </c>
+      <c r="C384" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D384" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="2" t="n">
+        <v>-0.08428032377211195</v>
+      </c>
+      <c r="B385" s="2" t="n">
+        <v>0.2633895090671034</v>
+      </c>
+      <c r="C385" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D385" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="2" t="n">
+        <v>-0.2234037140888369</v>
+      </c>
+      <c r="B386" s="2" t="n">
+        <v>0.1789674793424172</v>
+      </c>
+      <c r="C386" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D386" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="2" t="n">
+        <v>-0.6867452737200823</v>
+      </c>
+      <c r="B387" s="2" t="n">
+        <v>0.4067294628898676</v>
+      </c>
+      <c r="C387" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D387" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="2" t="n">
+        <v>-0.1571120663447899</v>
+      </c>
+      <c r="B388" s="2" t="n">
+        <v>0.3733330734958354</v>
+      </c>
+      <c r="C388" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D388" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="2" t="n">
+        <v>-0.1989166950602546</v>
+      </c>
+      <c r="B389" s="2" t="n">
+        <v>0.2535730168302732</v>
+      </c>
+      <c r="C389" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D389" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="2" t="n">
+        <v>-0.3792455118925043</v>
+      </c>
+      <c r="B390" s="2" t="n">
+        <v>0.3773331159016262</v>
+      </c>
+      <c r="C390" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D390" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="2" t="n">
+        <v>-0.09652782442218967</v>
+      </c>
+      <c r="B391" s="2" t="n">
+        <v>0.09665632815806847</v>
+      </c>
+      <c r="C391" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D391" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="2" t="n">
+        <v>-0.003353058797374797</v>
+      </c>
+      <c r="B392" s="2" t="n">
+        <v>0.2252559403817709</v>
+      </c>
+      <c r="C392" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D392" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="2" t="n">
+        <v>0.07264297513521722</v>
+      </c>
+      <c r="B393" s="2" t="n">
+        <v>0.3245167312465828</v>
+      </c>
+      <c r="C393" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D393" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="2" t="n">
+        <v>-0.07316181484754088</v>
+      </c>
+      <c r="B394" s="2" t="n">
+        <v>0.3185887771117532</v>
+      </c>
+      <c r="C394" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D394" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="2" t="n">
+        <v>0.06463271992192884</v>
+      </c>
+      <c r="B395" s="2" t="n">
+        <v>0.2541551003593789</v>
+      </c>
+      <c r="C395" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D395" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="2" t="n">
+        <v>-0.1069871216371224</v>
+      </c>
+      <c r="B396" s="2" t="n">
+        <v>0.3730371106551412</v>
+      </c>
+      <c r="C396" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D396" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="2" t="n">
+        <v>0.0680754923788958</v>
+      </c>
+      <c r="B397" s="2" t="n">
+        <v>0.3369650089512407</v>
+      </c>
+      <c r="C397" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D397" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="2" t="n">
+        <v>0.03998945243966854</v>
+      </c>
+      <c r="B398" s="2" t="n">
+        <v>0.3924196958955065</v>
+      </c>
+      <c r="C398" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D398" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="2" t="n">
+        <v>-0.8059571748337812</v>
+      </c>
+      <c r="B399" s="2" t="n">
+        <v>0.3473057974156844</v>
+      </c>
+      <c r="C399" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D399" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="2" t="n">
+        <v>-0.3667213793708141</v>
+      </c>
+      <c r="B400" s="2" t="n">
+        <v>0.357976225201361</v>
+      </c>
+      <c r="C400" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D400" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="2" t="n">
+        <v>-0.6168447024659771</v>
+      </c>
+      <c r="B401" s="2" t="n">
+        <v>0.3718193875876597</v>
+      </c>
+      <c r="C401" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D401" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="2" t="n">
+        <v>-0.3133788033407263</v>
+      </c>
+      <c r="B402" s="2" t="n">
+        <v>0.2997722463929828</v>
+      </c>
+      <c r="C402" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D402" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="2" t="n">
+        <v>-0.004663412888241601</v>
+      </c>
+      <c r="B403" s="2" t="n">
+        <v>0.2631813540496855</v>
+      </c>
+      <c r="C403" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D403" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="2" t="n">
+        <v>-0.2589632689347109</v>
+      </c>
+      <c r="B404" s="2" t="n">
+        <v>0.3484813339318737</v>
+      </c>
+      <c r="C404" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D404" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="2" t="n">
+        <v>-0.322898920080978</v>
+      </c>
+      <c r="B405" s="2" t="n">
+        <v>0.2094382007998903</v>
+      </c>
+      <c r="C405" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D405" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="2" t="n">
+        <v>-0.3078211235523192</v>
+      </c>
+      <c r="B406" s="2" t="n">
+        <v>0.216386298559864</v>
+      </c>
+      <c r="C406" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D406" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="2" t="n">
+        <v>-0.425598999102582</v>
+      </c>
+      <c r="B407" s="2" t="n">
+        <v>0.2696073831885071</v>
+      </c>
+      <c r="C407" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D407" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="2" t="n">
+        <v>-0.05147800572776091</v>
+      </c>
+      <c r="B408" s="2" t="n">
+        <v>0.4742762205315632</v>
+      </c>
+      <c r="C408" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D408" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="2" t="n">
+        <v>-0.110425785142044</v>
+      </c>
+      <c r="B409" s="2" t="n">
+        <v>0.2222803395096477</v>
+      </c>
+      <c r="C409" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D409" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>